--- a/fifa_players.xlsx
+++ b/fifa_players.xlsx
@@ -5,16 +5,31 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mi unidad\Physics\Articles and books\Programming\Datacamp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mi unidad\Physics\Articles and books\Programming\Datacamp\Reshaping data with pandas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED8EB2F6-229D-4109-8974-7646F61E2FB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE603BDF-0C50-457A-928A-098C9F9A7390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9FDB3130-01B9-4680-B952-44A4DE48147A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="16" xr2:uid="{9FDB3130-01B9-4680-B952-44A4DE48147A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet8" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet9" sheetId="9" r:id="rId9"/>
+    <sheet name="Sheet10" sheetId="10" r:id="rId10"/>
+    <sheet name="Sheet11" sheetId="11" r:id="rId11"/>
+    <sheet name="Sheet12" sheetId="12" r:id="rId12"/>
+    <sheet name="Sheet13" sheetId="13" r:id="rId13"/>
+    <sheet name="Sheet14" sheetId="14" r:id="rId14"/>
+    <sheet name="Sheet15" sheetId="15" r:id="rId15"/>
+    <sheet name="Sheet16" sheetId="16" r:id="rId16"/>
+    <sheet name="Sheet17" sheetId="17" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="172">
   <si>
     <t>id</t>
   </si>
@@ -145,6 +160,414 @@
   </si>
   <si>
     <t>FC Barcelona</t>
+  </si>
+  <si>
+    <t>Real Madrid</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>authors</t>
+  </si>
+  <si>
+    <t>num_pages</t>
+  </si>
+  <si>
+    <t>rating_count</t>
+  </si>
+  <si>
+    <t>rating</t>
+  </si>
+  <si>
+    <t>publisher</t>
+  </si>
+  <si>
+    <t>Wuthering Heights</t>
+  </si>
+  <si>
+    <t>Emily Bronte</t>
+  </si>
+  <si>
+    <t>Penguin Books</t>
+  </si>
+  <si>
+    <t>Frankeinstein</t>
+  </si>
+  <si>
+    <t>Mary Shelley</t>
+  </si>
+  <si>
+    <t>Kaplan Publishing</t>
+  </si>
+  <si>
+    <t>The Picture of Dorian Gray</t>
+  </si>
+  <si>
+    <t>Oscar Wilde</t>
+  </si>
+  <si>
+    <t>Pearson</t>
+  </si>
+  <si>
+    <t>isbn13</t>
+  </si>
+  <si>
+    <t>isbn10</t>
+  </si>
+  <si>
+    <t>prefix13</t>
+  </si>
+  <si>
+    <t>prefix10</t>
+  </si>
+  <si>
+    <t>F. Scott Fitzgerald</t>
+  </si>
+  <si>
+    <t>Ernest Hemingway</t>
+  </si>
+  <si>
+    <t>Virginia Woolf</t>
+  </si>
+  <si>
+    <t>The Great Gatsby</t>
+  </si>
+  <si>
+    <t>The Short Stories</t>
+  </si>
+  <si>
+    <t>To the Lighthouse</t>
+  </si>
+  <si>
+    <t>author</t>
+  </si>
+  <si>
+    <t>language_code</t>
+  </si>
+  <si>
+    <t>language_name</t>
+  </si>
+  <si>
+    <t>publisher_code</t>
+  </si>
+  <si>
+    <t>publisher_name</t>
+  </si>
+  <si>
+    <t>The Da Vinci Code</t>
+  </si>
+  <si>
+    <t>Angels &amp; Demons</t>
+  </si>
+  <si>
+    <t>La fortaleza digital</t>
+  </si>
+  <si>
+    <t>Dan Brown</t>
+  </si>
+  <si>
+    <t>english</t>
+  </si>
+  <si>
+    <t>spanish</t>
+  </si>
+  <si>
+    <t>Random House</t>
+  </si>
+  <si>
+    <t>Pocket Books</t>
+  </si>
+  <si>
+    <t>Umbriel</t>
+  </si>
+  <si>
+    <t>Los Juegos del Hambre</t>
+  </si>
+  <si>
+    <t>Catching Fire</t>
+  </si>
+  <si>
+    <t>Il canto della rivolta</t>
+  </si>
+  <si>
+    <t>language</t>
+  </si>
+  <si>
+    <t>Spanish</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Italian</t>
+  </si>
+  <si>
+    <t>publication date</t>
+  </si>
+  <si>
+    <t>5/25/2010</t>
+  </si>
+  <si>
+    <t>5/25/2012</t>
+  </si>
+  <si>
+    <t>publication number</t>
+  </si>
+  <si>
+    <t>page number</t>
+  </si>
+  <si>
+    <t>average_rating</t>
+  </si>
+  <si>
+    <t>ratings_count</t>
+  </si>
+  <si>
+    <t>Fahrenheit 451-1953</t>
+  </si>
+  <si>
+    <t>1984-1949</t>
+  </si>
+  <si>
+    <t>Brave New World-1932</t>
+  </si>
+  <si>
+    <t>subtitle</t>
+  </si>
+  <si>
+    <t>goodreads</t>
+  </si>
+  <si>
+    <t>amazon</t>
+  </si>
+  <si>
+    <t>Harry Potter</t>
+  </si>
+  <si>
+    <t>J.K. Rowling/Mary GrandPré</t>
+  </si>
+  <si>
+    <t>the Half-Blood Prince</t>
+  </si>
+  <si>
+    <t>the Order of the Phoenix</t>
+  </si>
+  <si>
+    <t>the Chamber of Secrets</t>
+  </si>
+  <si>
+    <t>the Prisiones of Azkaban</t>
+  </si>
+  <si>
+    <t>The Deathly Hallows</t>
+  </si>
+  <si>
+    <t>the Sorcerer's Stone</t>
+  </si>
+  <si>
+    <t>the Goblet of Fire</t>
+  </si>
+  <si>
+    <t>J.K. Rowling</t>
+  </si>
+  <si>
+    <t>Sherlock Holmes: The Complete Novels</t>
+  </si>
+  <si>
+    <t>main_title</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>number_pages</t>
+  </si>
+  <si>
+    <t>number_ratings</t>
+  </si>
+  <si>
+    <t>Adventures of Sherlock Holmes: Memoirs</t>
+  </si>
+  <si>
+    <t>Vol I</t>
+  </si>
+  <si>
+    <t>Vol II</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>night</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>total calls</t>
+  </si>
+  <si>
+    <t>total minutes</t>
+  </si>
+  <si>
+    <t>California</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>Ohio</t>
+  </si>
+  <si>
+    <t>Los Angeles</t>
+  </si>
+  <si>
+    <t>San Francisco</t>
+  </si>
+  <si>
+    <t>Cleveland</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>feature</t>
+  </si>
+  <si>
+    <t>text messages</t>
+  </si>
+  <si>
+    <t>total GB</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>exited</t>
+  </si>
+  <si>
+    <t>minutes</t>
+  </si>
+  <si>
+    <t>calls</t>
+  </si>
+  <si>
+    <t>charge</t>
+  </si>
+  <si>
+    <t>International</t>
+  </si>
+  <si>
+    <t>churn</t>
+  </si>
+  <si>
+    <t>National</t>
+  </si>
+  <si>
+    <t>no churn</t>
+  </si>
+  <si>
+    <t>eve</t>
+  </si>
+  <si>
+    <t>plan</t>
+  </si>
+  <si>
+    <t>voicemail</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>no_churn</t>
+  </si>
+  <si>
+    <t>international_plan</t>
+  </si>
+  <si>
+    <t>voice_mail_plan</t>
+  </si>
+  <si>
+    <t>total_day_calls</t>
+  </si>
+  <si>
+    <t>total_night_calls</t>
+  </si>
+  <si>
+    <t>LA</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>NY</t>
+  </si>
+  <si>
+    <t>scope</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>international</t>
+  </si>
+  <si>
+    <t>national</t>
+  </si>
+  <si>
+    <t>NaN</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>biological_sex</t>
+  </si>
+  <si>
+    <t>perc_obesity</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>bounds</t>
+  </si>
+  <si>
+    <t>[15.4, 31.5]</t>
+  </si>
+  <si>
+    <t>[16.2, 32.4]</t>
+  </si>
+  <si>
+    <t>[1.1, 3.5]</t>
+  </si>
+  <si>
+    <t>[13.1, 33.0]</t>
   </si>
 </sst>
 </file>
@@ -180,8 +603,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -498,7 +922,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACF709EA-5DF0-4EA0-A93D-7A76B1611DEF}">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
@@ -1065,25 +1489,1827 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A966B63-B4FE-44D1-A5C4-27DE5F34BC39}">
-  <dimension ref="A1:G24"/>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DA269E5-985A-49ED-9B45-BDF30A43CADA}">
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G24"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3">
+        <v>116</v>
+      </c>
+      <c r="D3">
+        <v>204</v>
+      </c>
+      <c r="E3">
+        <v>85</v>
+      </c>
+      <c r="F3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C4">
+        <v>109</v>
+      </c>
+      <c r="D4">
+        <v>287</v>
+      </c>
+      <c r="E4">
+        <v>90</v>
+      </c>
+      <c r="F4">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5">
+        <v>84</v>
+      </c>
+      <c r="D5">
+        <v>84</v>
+      </c>
+      <c r="E5">
+        <v>75</v>
+      </c>
+      <c r="F5">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C6">
+        <v>67</v>
+      </c>
+      <c r="D6">
+        <v>50</v>
+      </c>
+      <c r="E6">
+        <v>67</v>
+      </c>
+      <c r="F6">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EDBC4C7-F9B7-45A1-9B4E-9252B6E63042}">
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D7" t="s">
+        <v>125</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C9" t="s">
+        <v>123</v>
+      </c>
+      <c r="D9" t="s">
+        <v>126</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B10" t="s">
+        <v>129</v>
+      </c>
+      <c r="C10" t="s">
+        <v>121</v>
+      </c>
+      <c r="D10" t="s">
+        <v>124</v>
+      </c>
+      <c r="E10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C11" t="s">
+        <v>121</v>
+      </c>
+      <c r="D11" t="s">
+        <v>125</v>
+      </c>
+      <c r="E11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>117</v>
+      </c>
+      <c r="B12" t="s">
+        <v>129</v>
+      </c>
+      <c r="C12" t="s">
+        <v>122</v>
+      </c>
+      <c r="D12" t="s">
+        <v>122</v>
+      </c>
+      <c r="E12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>117</v>
+      </c>
+      <c r="B13" t="s">
+        <v>129</v>
+      </c>
+      <c r="C13" t="s">
+        <v>123</v>
+      </c>
+      <c r="D13" t="s">
+        <v>126</v>
+      </c>
+      <c r="E13">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>117</v>
+      </c>
+      <c r="B14" t="s">
+        <v>130</v>
+      </c>
+      <c r="C14" t="s">
+        <v>121</v>
+      </c>
+      <c r="D14" t="s">
+        <v>124</v>
+      </c>
+      <c r="E14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>117</v>
+      </c>
+      <c r="B15" t="s">
+        <v>130</v>
+      </c>
+      <c r="C15" t="s">
+        <v>121</v>
+      </c>
+      <c r="D15" t="s">
+        <v>125</v>
+      </c>
+      <c r="E15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>117</v>
+      </c>
+      <c r="B16" t="s">
+        <v>130</v>
+      </c>
+      <c r="C16" t="s">
+        <v>122</v>
+      </c>
+      <c r="D16" t="s">
+        <v>122</v>
+      </c>
+      <c r="E16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>117</v>
+      </c>
+      <c r="B17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C17" t="s">
+        <v>123</v>
+      </c>
+      <c r="D17" t="s">
+        <v>126</v>
+      </c>
+      <c r="E17">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BBE1FB4-66A0-4F6E-B092-8C253D162D64}">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D2">
+        <v>184.5</v>
+      </c>
+      <c r="E2">
+        <v>97</v>
+      </c>
+      <c r="F2">
+        <v>31.37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D3">
+        <v>129.1</v>
+      </c>
+      <c r="E3">
+        <v>137</v>
+      </c>
+      <c r="F3">
+        <v>21.95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D4">
+        <v>332.9</v>
+      </c>
+      <c r="E4">
+        <v>67</v>
+      </c>
+      <c r="F4">
+        <v>56.59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D5">
+        <v>110.4</v>
+      </c>
+      <c r="E5">
+        <v>103</v>
+      </c>
+      <c r="F5">
+        <v>18.77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D6">
+        <v>119.3</v>
+      </c>
+      <c r="E6">
+        <v>117</v>
+      </c>
+      <c r="F6">
+        <v>20.28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>141</v>
+      </c>
+      <c r="B7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D7">
+        <v>137.1</v>
+      </c>
+      <c r="E7">
+        <v>88</v>
+      </c>
+      <c r="F7">
+        <v>23.31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC78BA4B-7CFE-4765-9C0B-C9B31A972BEC}">
+  <dimension ref="A1:F25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>2019</v>
+      </c>
+      <c r="B2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F2">
         <v>0</v>
       </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2019</v>
+      </c>
+      <c r="B3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2019</v>
+      </c>
+      <c r="B4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E4" t="s">
+        <v>144</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2020</v>
+      </c>
+      <c r="B5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E5" t="s">
+        <v>134</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2020</v>
+      </c>
+      <c r="B6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" t="s">
+        <v>143</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>2020</v>
+      </c>
+      <c r="B7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D7" t="s">
+        <v>124</v>
+      </c>
+      <c r="E7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>2019</v>
+      </c>
+      <c r="B8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C8" t="s">
+        <v>121</v>
+      </c>
+      <c r="D8" t="s">
+        <v>124</v>
+      </c>
+      <c r="E8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>2019</v>
+      </c>
+      <c r="B9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D9" t="s">
+        <v>124</v>
+      </c>
+      <c r="E9" t="s">
+        <v>143</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>2019</v>
+      </c>
+      <c r="B10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C10" t="s">
+        <v>121</v>
+      </c>
+      <c r="D10" t="s">
+        <v>124</v>
+      </c>
+      <c r="E10" t="s">
+        <v>144</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>2020</v>
+      </c>
+      <c r="B11" t="s">
+        <v>145</v>
+      </c>
+      <c r="C11" t="s">
+        <v>121</v>
+      </c>
+      <c r="D11" t="s">
+        <v>124</v>
+      </c>
+      <c r="E11" t="s">
+        <v>134</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>2020</v>
+      </c>
+      <c r="B12" t="s">
+        <v>145</v>
+      </c>
+      <c r="C12" t="s">
+        <v>121</v>
+      </c>
+      <c r="D12" t="s">
+        <v>124</v>
+      </c>
+      <c r="E12" t="s">
+        <v>143</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>2020</v>
+      </c>
+      <c r="B13" t="s">
+        <v>145</v>
+      </c>
+      <c r="C13" t="s">
+        <v>121</v>
+      </c>
+      <c r="D13" t="s">
+        <v>124</v>
+      </c>
+      <c r="E13" t="s">
+        <v>144</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>2019</v>
+      </c>
+      <c r="B14" t="s">
+        <v>138</v>
+      </c>
+      <c r="C14" t="s">
+        <v>122</v>
+      </c>
+      <c r="D14" t="s">
+        <v>122</v>
+      </c>
+      <c r="E14" t="s">
+        <v>134</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>2019</v>
+      </c>
+      <c r="B15" t="s">
+        <v>138</v>
+      </c>
+      <c r="C15" t="s">
+        <v>122</v>
+      </c>
+      <c r="D15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E15" t="s">
+        <v>143</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>2019</v>
+      </c>
+      <c r="B16" t="s">
+        <v>138</v>
+      </c>
+      <c r="C16" t="s">
+        <v>122</v>
+      </c>
+      <c r="D16" t="s">
+        <v>122</v>
+      </c>
+      <c r="E16" t="s">
+        <v>144</v>
+      </c>
+      <c r="F16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>2020</v>
+      </c>
+      <c r="B17" t="s">
+        <v>138</v>
+      </c>
+      <c r="C17" t="s">
+        <v>122</v>
+      </c>
+      <c r="D17" t="s">
+        <v>122</v>
+      </c>
+      <c r="E17" t="s">
+        <v>134</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>2020</v>
+      </c>
+      <c r="B18" t="s">
+        <v>138</v>
+      </c>
+      <c r="C18" t="s">
+        <v>122</v>
+      </c>
+      <c r="D18" t="s">
+        <v>122</v>
+      </c>
+      <c r="E18" t="s">
+        <v>143</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>2020</v>
+      </c>
+      <c r="B19" t="s">
+        <v>138</v>
+      </c>
+      <c r="C19" t="s">
+        <v>122</v>
+      </c>
+      <c r="D19" t="s">
+        <v>122</v>
+      </c>
+      <c r="E19" t="s">
+        <v>144</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>2019</v>
+      </c>
+      <c r="B20" t="s">
+        <v>145</v>
+      </c>
+      <c r="C20" t="s">
+        <v>122</v>
+      </c>
+      <c r="D20" t="s">
+        <v>122</v>
+      </c>
+      <c r="E20" t="s">
+        <v>134</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>2019</v>
+      </c>
+      <c r="B21" t="s">
+        <v>145</v>
+      </c>
+      <c r="C21" t="s">
+        <v>122</v>
+      </c>
+      <c r="D21" t="s">
+        <v>122</v>
+      </c>
+      <c r="E21" t="s">
+        <v>143</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>2019</v>
+      </c>
+      <c r="B22" t="s">
+        <v>145</v>
+      </c>
+      <c r="C22" t="s">
+        <v>122</v>
+      </c>
+      <c r="D22" t="s">
+        <v>122</v>
+      </c>
+      <c r="E22" t="s">
+        <v>144</v>
+      </c>
+      <c r="F22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>2020</v>
+      </c>
+      <c r="B23" t="s">
+        <v>145</v>
+      </c>
+      <c r="C23" t="s">
+        <v>122</v>
+      </c>
+      <c r="D23" t="s">
+        <v>122</v>
+      </c>
+      <c r="E23" t="s">
+        <v>134</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>2020</v>
+      </c>
+      <c r="B24" t="s">
+        <v>145</v>
+      </c>
+      <c r="C24" t="s">
+        <v>122</v>
+      </c>
+      <c r="D24" t="s">
+        <v>122</v>
+      </c>
+      <c r="E24" t="s">
+        <v>143</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>2020</v>
+      </c>
+      <c r="B25" t="s">
+        <v>145</v>
+      </c>
+      <c r="C25" t="s">
+        <v>122</v>
+      </c>
+      <c r="D25" t="s">
+        <v>122</v>
+      </c>
+      <c r="E25" t="s">
+        <v>144</v>
+      </c>
+      <c r="F25">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62221479-3394-4BD3-BD70-743476C7B03B}">
+  <dimension ref="A1:F17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>148</v>
+      </c>
       <c r="B1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>100</v>
+      </c>
+      <c r="B2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>84.25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>115</v>
+      </c>
+      <c r="B3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>121</v>
+      </c>
+      <c r="D3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E3" t="s">
+        <v>151</v>
+      </c>
+      <c r="F3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>71</v>
+      </c>
+      <c r="B4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>101</v>
+      </c>
+      <c r="D4" t="s">
+        <v>150</v>
+      </c>
+      <c r="E4" t="s">
+        <v>152</v>
+      </c>
+      <c r="F4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>120</v>
+      </c>
+      <c r="B5" t="b">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>78</v>
+      </c>
+      <c r="D5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E5" t="s">
+        <v>152</v>
+      </c>
+      <c r="F5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>106.818</v>
+      </c>
+      <c r="B6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>96.909000000000006</v>
+      </c>
+      <c r="D6" t="s">
+        <v>150</v>
+      </c>
+      <c r="E6" t="s">
+        <v>151</v>
+      </c>
+      <c r="F6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>90.9</v>
+      </c>
+      <c r="B7" t="b">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>100.8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>153</v>
+      </c>
+      <c r="E7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>78</v>
+      </c>
+      <c r="B8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>90</v>
+      </c>
+      <c r="D8" t="s">
+        <v>150</v>
+      </c>
+      <c r="E8" t="s">
+        <v>152</v>
+      </c>
+      <c r="F8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>109</v>
+      </c>
+      <c r="B9" t="b">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>99</v>
+      </c>
+      <c r="D9" t="s">
+        <v>153</v>
+      </c>
+      <c r="E9" t="s">
+        <v>152</v>
+      </c>
+      <c r="F9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10" t="b">
         <v>1</v>
       </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>150</v>
+      </c>
+      <c r="E10" t="s">
+        <v>151</v>
+      </c>
+      <c r="F10" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11" t="b">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>153</v>
+      </c>
+      <c r="E11" t="s">
+        <v>151</v>
+      </c>
+      <c r="F11" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12" t="b">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>150</v>
+      </c>
+      <c r="E12" t="s">
+        <v>152</v>
+      </c>
+      <c r="F12" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13" t="b">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>153</v>
+      </c>
+      <c r="E13" t="s">
+        <v>152</v>
+      </c>
+      <c r="F13" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>100</v>
+      </c>
+      <c r="B14" t="b">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>119</v>
+      </c>
+      <c r="D14" t="s">
+        <v>150</v>
+      </c>
+      <c r="E14" t="s">
+        <v>151</v>
+      </c>
+      <c r="F14" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>95</v>
+      </c>
+      <c r="B15" t="b">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>101.5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>153</v>
+      </c>
+      <c r="E15" t="s">
+        <v>151</v>
+      </c>
+      <c r="F15" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>69</v>
+      </c>
+      <c r="B16" t="b">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>104</v>
+      </c>
+      <c r="D16" t="s">
+        <v>150</v>
+      </c>
+      <c r="E16" t="s">
+        <v>152</v>
+      </c>
+      <c r="F16" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>87</v>
+      </c>
+      <c r="B17" t="b">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>113</v>
+      </c>
+      <c r="D17" t="s">
+        <v>153</v>
+      </c>
+      <c r="E17" t="s">
+        <v>152</v>
+      </c>
+      <c r="F17" t="s">
+        <v>151</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41D2724C-2FEA-4230-B0AF-7AB5AED6397F}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" t="s">
+        <v>154</v>
+      </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>150</v>
+      </c>
+      <c r="D1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2">
+        <v>23</v>
+      </c>
+      <c r="D2">
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3">
+        <v>30</v>
+      </c>
+      <c r="D3">
+        <v>34</v>
+      </c>
+      <c r="E3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D4">
+        <v>24</v>
+      </c>
+      <c r="E4">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{958E5A32-1EA0-4086-9550-2C7947D6A0BC}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C2">
+        <v>2005</v>
+      </c>
+      <c r="D2">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C3">
+        <v>2005</v>
+      </c>
+      <c r="D3">
+        <v>24.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C4">
+        <v>2015</v>
+      </c>
+      <c r="D4">
+        <v>26.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C5">
+        <v>2015</v>
+      </c>
+      <c r="D5">
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>165</v>
+      </c>
+      <c r="B6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C6">
+        <v>2005</v>
+      </c>
+      <c r="D6">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>165</v>
+      </c>
+      <c r="B7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C7">
+        <v>2005</v>
+      </c>
+      <c r="D7">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>165</v>
+      </c>
+      <c r="B8" t="s">
+        <v>163</v>
+      </c>
+      <c r="C8">
+        <v>2015</v>
+      </c>
+      <c r="D8">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B9" t="s">
+        <v>164</v>
+      </c>
+      <c r="C9">
+        <v>2015</v>
+      </c>
+      <c r="D9">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>166</v>
+      </c>
+      <c r="B10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C10">
+        <v>2005</v>
+      </c>
+      <c r="D10">
+        <v>17.600000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>166</v>
+      </c>
+      <c r="B11" t="s">
+        <v>164</v>
+      </c>
+      <c r="C11">
+        <v>2005</v>
+      </c>
+      <c r="D11">
+        <v>18.600000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>166</v>
+      </c>
+      <c r="B12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C12">
+        <v>2015</v>
+      </c>
+      <c r="D12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>166</v>
+      </c>
+      <c r="B13" t="s">
+        <v>164</v>
+      </c>
+      <c r="C13">
+        <v>2015</v>
+      </c>
+      <c r="D13">
+        <v>22.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3ADB52D-3FEC-4D76-A1DD-E389EF3AF608}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2">
+        <v>21.5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>22.3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B4">
+        <v>2.5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B5">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A966B63-B4FE-44D1-A5C4-27DE5F34BC39}">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>37</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -1091,22 +3317,16 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>192448</v>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2">
-        <v>27</v>
+        <v>2000</v>
       </c>
       <c r="D2">
         <v>187</v>
@@ -1114,79 +3334,67 @@
       <c r="E2">
         <v>85</v>
       </c>
-      <c r="F2" t="s">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="G2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
       <c r="C3">
+        <v>2010</v>
+      </c>
+      <c r="D3">
+        <v>189</v>
+      </c>
+      <c r="E3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s">
         <v>33</v>
       </c>
-      <c r="D3">
+      <c r="C4">
+        <v>2000</v>
+      </c>
+      <c r="D4">
         <v>172</v>
       </c>
-      <c r="E3">
+      <c r="E4">
         <v>66</v>
       </c>
-      <c r="F3" t="s">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" t="s">
         <v>33</v>
       </c>
-      <c r="G3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4">
-        <v>32</v>
-      </c>
-      <c r="D4">
-        <v>182</v>
-      </c>
-      <c r="E4">
-        <v>86</v>
-      </c>
-      <c r="F4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
       <c r="C5">
-        <v>28</v>
+        <v>2010</v>
       </c>
       <c r="D5">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E5">
-        <v>73</v>
-      </c>
-      <c r="F5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>29</v>
+        <v>2000</v>
       </c>
       <c r="D6">
         <v>183</v>
@@ -1194,371 +3402,761 @@
       <c r="E6">
         <v>76</v>
       </c>
-      <c r="F6" t="s">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="G6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
       <c r="C7">
-        <v>27</v>
+        <v>2010</v>
       </c>
       <c r="D7">
         <v>185</v>
       </c>
       <c r="E7">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8">
+        <v>2000</v>
+      </c>
+      <c r="D8">
+        <v>184</v>
+      </c>
+      <c r="E8">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9">
+        <v>2010</v>
+      </c>
+      <c r="D9">
+        <v>185</v>
+      </c>
+      <c r="E9">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DF0A077-3E4B-47E4-8034-D8AFC760418F}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2">
+        <v>322</v>
+      </c>
+      <c r="D2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2">
+        <v>3.85</v>
+      </c>
+      <c r="F2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3">
+        <v>189</v>
+      </c>
+      <c r="D3">
+        <v>2452</v>
+      </c>
+      <c r="E3">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="F3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4">
+        <v>187</v>
+      </c>
+      <c r="D4">
+        <v>3342</v>
+      </c>
+      <c r="E4">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="F4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97559481-E27F-4B63-A3E7-A0CC1874740E}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2">
+        <v>978060098919</v>
+      </c>
+      <c r="D2">
+        <v>1572702567</v>
+      </c>
+      <c r="E2">
+        <v>978</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3">
+        <v>9780684837864</v>
+      </c>
+      <c r="D3">
+        <v>684837862</v>
+      </c>
+      <c r="E3">
+        <v>978</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4">
+        <v>9780156030472</v>
+      </c>
+      <c r="D4">
+        <v>156030470</v>
+      </c>
+      <c r="E4">
+        <v>978</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2C21160-F5D6-40D8-A67F-1F3B5FC0E617}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" width="10.21875" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.21875" customWidth="1"/>
+    <col min="6" max="6" width="14.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3">
+        <v>34</v>
+      </c>
+      <c r="F3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4">
         <v>84</v>
       </c>
-      <c r="F7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F6DA3F1-1DEE-47AE-9E56-F8CCA69004CE}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3">
+        <v>6</v>
+      </c>
+      <c r="E3">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="1">
+        <v>42222</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>390</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6487D45-6B2B-44BE-BC32-107D3BD06FC7}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2">
+        <v>1953</v>
+      </c>
+      <c r="C2">
+        <v>186</v>
+      </c>
+      <c r="D2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E2">
+        <v>23244</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3">
+        <v>1949</v>
+      </c>
+      <c r="C3">
+        <v>268</v>
+      </c>
+      <c r="D3">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="E3">
+        <v>14353</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4">
+        <v>1932</v>
+      </c>
+      <c r="C4">
+        <v>123</v>
+      </c>
+      <c r="D4">
+        <v>4.3</v>
+      </c>
+      <c r="E4">
+        <v>23535</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEC835E3-F979-435D-A5FA-D57564800421}">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2">
+        <v>4.57</v>
+      </c>
+      <c r="E2">
+        <v>4.5199999999999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3">
+        <v>4.49</v>
+      </c>
+      <c r="E3">
+        <v>4.4400000000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D4">
+        <v>4.42</v>
+      </c>
+      <c r="E4">
+        <v>4.37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="E5">
+        <v>4.51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6">
+        <v>4.42</v>
+      </c>
+      <c r="E6">
+        <v>4.37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7">
+        <v>4.47</v>
+      </c>
+      <c r="E7">
+        <v>4.42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>97</v>
+      </c>
       <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8">
-        <v>31</v>
+        <v>105</v>
+      </c>
+      <c r="C8" t="s">
+        <v>106</v>
       </c>
       <c r="D8">
-        <v>185</v>
+        <v>4.5599999999999996</v>
       </c>
       <c r="E8">
-        <v>81</v>
-      </c>
-      <c r="F8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9">
-        <v>25</v>
-      </c>
-      <c r="D9">
-        <v>182</v>
-      </c>
-      <c r="E9">
-        <v>75</v>
-      </c>
-      <c r="F9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10">
-        <v>31</v>
-      </c>
-      <c r="D10">
-        <v>184</v>
-      </c>
-      <c r="E10">
-        <v>78</v>
-      </c>
-      <c r="F10" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11">
-        <v>26</v>
-      </c>
-      <c r="D11">
-        <v>191</v>
-      </c>
-      <c r="E11">
-        <v>81</v>
-      </c>
-      <c r="F11" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12">
-        <v>24</v>
-      </c>
-      <c r="D12">
-        <v>186</v>
-      </c>
-      <c r="E12">
-        <v>81</v>
-      </c>
-      <c r="F12" t="s">
-        <v>34</v>
-      </c>
-      <c r="G12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13">
-        <v>29</v>
-      </c>
-      <c r="D13">
-        <v>190</v>
-      </c>
-      <c r="E13">
-        <v>84</v>
-      </c>
-      <c r="F13" t="s">
-        <v>31</v>
-      </c>
-      <c r="G13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14">
-        <v>31</v>
-      </c>
-      <c r="D14">
-        <v>174</v>
-      </c>
-      <c r="E14">
-        <v>75</v>
-      </c>
-      <c r="F14" t="s">
-        <v>31</v>
-      </c>
-      <c r="G14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15">
-        <v>22</v>
-      </c>
-      <c r="D15">
-        <v>178</v>
-      </c>
-      <c r="E15">
-        <v>67</v>
-      </c>
-      <c r="F15" t="s">
-        <v>34</v>
-      </c>
-      <c r="G15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16">
-        <v>22</v>
-      </c>
-      <c r="D16">
-        <v>171</v>
-      </c>
-      <c r="E16">
-        <v>73</v>
-      </c>
-      <c r="F16" t="s">
-        <v>31</v>
-      </c>
-      <c r="G16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17">
-        <v>21</v>
-      </c>
-      <c r="D17">
-        <v>186</v>
-      </c>
-      <c r="E17">
-        <v>78</v>
-      </c>
-      <c r="F17" t="s">
-        <v>31</v>
-      </c>
-      <c r="G17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18">
-        <v>26</v>
-      </c>
-      <c r="D18">
-        <v>174</v>
-      </c>
-      <c r="E18">
-        <v>71</v>
-      </c>
-      <c r="F18" t="s">
-        <v>31</v>
-      </c>
-      <c r="G18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19">
-        <v>24</v>
-      </c>
-      <c r="D19">
-        <v>180</v>
-      </c>
-      <c r="E19">
-        <v>73</v>
-      </c>
-      <c r="F19" t="s">
-        <v>34</v>
-      </c>
-      <c r="G19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20">
-        <v>18</v>
-      </c>
-      <c r="D20">
-        <v>176</v>
-      </c>
-      <c r="E20">
-        <v>73</v>
-      </c>
-      <c r="F20" t="s">
-        <v>31</v>
-      </c>
-      <c r="G20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21">
-        <v>20</v>
-      </c>
-      <c r="D21">
-        <v>182</v>
-      </c>
-      <c r="E21">
-        <v>78</v>
-      </c>
-      <c r="F21" t="s">
-        <v>32</v>
-      </c>
-      <c r="G21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22">
-        <v>18</v>
-      </c>
-      <c r="D22">
-        <v>174</v>
-      </c>
-      <c r="E22">
-        <v>64</v>
-      </c>
-      <c r="F22" t="s">
-        <v>31</v>
-      </c>
-      <c r="G22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23">
-        <v>26</v>
-      </c>
-      <c r="D23">
-        <v>182</v>
-      </c>
-      <c r="E23">
-        <v>80</v>
-      </c>
-      <c r="F23" t="s">
-        <v>31</v>
-      </c>
-      <c r="G23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24">
-        <v>19</v>
-      </c>
-      <c r="D24">
-        <v>190</v>
-      </c>
-      <c r="E24">
-        <v>81</v>
-      </c>
-      <c r="F24" t="s">
-        <v>34</v>
-      </c>
-      <c r="G24" t="s">
-        <v>35</v>
+        <v>4.51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AF1D921-9226-4B86-8718-F613647946D9}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2">
+        <v>1059</v>
+      </c>
+      <c r="D2">
+        <v>24087</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3">
+        <v>709</v>
+      </c>
+      <c r="D3">
+        <v>26794</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4">
+        <v>334</v>
+      </c>
+      <c r="D4">
+        <v>2184</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5">
+        <v>238</v>
+      </c>
+      <c r="D5">
+        <v>1884</v>
       </c>
     </row>
   </sheetData>
